--- a/BCWinForm/Config/CSOT_T4/CSV/ALARMMAP_Source.xlsx
+++ b/BCWinForm/Config/CSOT_T4/CSV/ALARMMAP_Source.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C#_ExaminationArea\OverhaedHoistTransporter\OverhaedHoistTransporter_SANWA_1.3.0\BCWinForm\Config\CSOT_T4\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiwenjian/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B62E3A1-C6ED-5548-80A0-9CBE8B6D4352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALARMMAP_backup (2)" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="600">
   <si>
     <t>OBJECT_ID</t>
   </si>
@@ -2259,12 +2260,118 @@
     <t>CV訊號異常</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>Out-of-ctrl  monitor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a. 人为触发/变更界面离线Local功能</t>
+  </si>
+  <si>
+    <t>a1. 确认人为动机</t>
+  </si>
+  <si>
+    <t>a. 人为触发/变更界面离线Offline功能</t>
+  </si>
+  <si>
+    <t>a. 人为触发/变更界面Stop功能</t>
+  </si>
+  <si>
+    <t>a. 人为触发/变更界面EMS功能</t>
+  </si>
+  <si>
+    <t>a. 上货前之PIO设定CH/ID异常</t>
+  </si>
+  <si>
+    <t>a1. 确认图资CH/ID编值是否正确
+a2. 检查PIO Sensor是否有电
+a3. 检查IPC COM PORT是否异常</t>
+  </si>
+  <si>
+    <t>a. 下货前之PIO设定CH/ID异常</t>
+  </si>
+  <si>
+    <t>a. 夹爪皮带断裂或短路
+b. 夹爪驱动器损坏
+c. IPC COM PORT损坏</t>
+  </si>
+  <si>
+    <t>a1. 检查/更换皮带
+b1. 检查驱动器灯号显示
+c1. 交换IPC COM PORT测试通讯</t>
+  </si>
+  <si>
+    <t>AreaSnr切换运作异常</t>
+  </si>
+  <si>
+    <t>a. 光学雷达设定IO切换系统(DO)异常</t>
+  </si>
+  <si>
+    <t>a1. OHT断电重新启动
+a2. IO切换系统送修</t>
+  </si>
+  <si>
+    <t>人为触发离线Local异常</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger an offline Local exception artificially</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人为触发离线Offline异常</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manually trigger offline offline exception</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人为触发Stop异常</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificially trigger Stop exception</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人为触发EMS异常</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificially trigger EMS abnormalities</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上货前PIO_Set_CH_ID_Fail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>下货前PIO_Set_CH_ID_Fail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIO Set CH ID Fail before delivery</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIO Se CH ID Fail before ordering</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹爪马达通讯异常</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gripper motor communication abnormal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2437,6 +2544,11 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2620,7 +2732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2740,6 +2852,36 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -2879,7 +3021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2909,6 +3051,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3230,26 +3387,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
-    <col min="6" max="6" width="108.125" customWidth="1"/>
-    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.1640625" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3275,7 +3432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="48">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3301,7 +3458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3484,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="32">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3353,7 +3510,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="80">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3379,7 +3536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3403,227 +3560,225 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="68">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
+        <v>98</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="64">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>99</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>432</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>101</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>379</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>433</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>102</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E9" t="s">
-        <v>434</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>342</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
+        <v>102</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>103</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>381</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>435</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>104</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E11" t="s">
-        <v>436</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>346</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
+        <v>104</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
         <v>150</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>402</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>437</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:8" ht="80">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
         <v>220</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>438</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>221</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>439</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="80">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>106</v>
@@ -3632,386 +3787,388 @@
         <v>109</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="80">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>222</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:8" ht="32">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
         <v>223</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>441</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:8" ht="32">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
         <v>224</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>442</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:8" ht="32">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
         <v>225</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>443</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:8" ht="32">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
         <v>226</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>444</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:8" ht="32">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
         <v>227</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>445</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:8" ht="32">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
         <v>228</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>446</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:8" ht="32">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
         <v>233</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>447</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:8" ht="32">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
         <v>234</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>18</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>448</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:8" ht="32">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
         <v>235</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>449</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:8" ht="32">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
         <v>236</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>450</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
+    <row r="27" spans="1:8" ht="48">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
         <v>301</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>451</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:8" ht="48">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
         <v>302</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>452</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:8" ht="48">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
         <v>444</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
         <v>28</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>453</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
         <v>445</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
         <v>415</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>454</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>446</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>416</v>
-      </c>
-      <c r="E30" t="s">
-        <v>455</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>404</v>
@@ -4021,45 +4178,45 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
+        <v>446</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>416</v>
+      </c>
+      <c r="E31" t="s">
+        <v>455</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="32">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
         <v>447</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>456</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>448</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" t="s">
-        <v>457</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>127</v>
@@ -4069,311 +4226,311 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="32">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33">
+        <v>448</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>457</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
         <v>800</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
         <v>377</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>458</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
         <v>801</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
         <v>382</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>459</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>802</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>355</v>
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36">
+        <v>802</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
         <v>803</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
         <v>384</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>461</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>804</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>357</v>
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="16">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38">
+        <v>804</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
         <v>805</v>
       </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
         <v>386</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>463</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>806</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>387</v>
-      </c>
-      <c r="E39" t="s">
-        <v>464</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>359</v>
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>359</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>359</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42">
+        <v>808</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>388</v>
+      </c>
+      <c r="E42" t="s">
+        <v>466</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
         <v>811</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
         <v>390</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>467</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43">
-        <v>812</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>391</v>
-      </c>
-      <c r="E43" t="s">
-        <v>468</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>361</v>
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44">
+        <v>812</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>391</v>
+      </c>
+      <c r="E44" t="s">
+        <v>468</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
         <v>813</v>
       </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
         <v>392</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>469</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>814</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>393</v>
-      </c>
-      <c r="E45" t="s">
-        <v>470</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>362</v>
@@ -4383,21 +4540,21 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E46" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>362</v>
@@ -4407,21 +4564,21 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E47" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>362</v>
@@ -4431,21 +4588,21 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="E48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>362</v>
@@ -4455,21 +4612,21 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E49" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>362</v>
@@ -4479,69 +4636,69 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50">
+        <v>818</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>418</v>
+      </c>
+      <c r="E50" t="s">
+        <v>474</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
         <v>819</v>
       </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
         <v>419</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>475</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51">
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
         <v>820</v>
       </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
         <v>420</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>476</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52">
-        <v>821</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>421</v>
-      </c>
-      <c r="E52" t="s">
-        <v>477</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>408</v>
@@ -4551,2619 +4708,2832 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53">
+        <v>821</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>421</v>
+      </c>
+      <c r="E53" t="s">
+        <v>477</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
         <v>822</v>
       </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
         <v>422</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>478</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54">
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
         <v>823</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
         <v>423</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>479</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55">
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>872</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>587</v>
+      </c>
+      <c r="E56" t="s">
+        <v>586</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>873</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>589</v>
+      </c>
+      <c r="E57" t="s">
+        <v>588</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>874</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>591</v>
+      </c>
+      <c r="E58" t="s">
+        <v>590</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>875</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>593</v>
+      </c>
+      <c r="E59" t="s">
+        <v>592</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
         <v>888</v>
       </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
         <v>396</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E60" t="s">
         <v>480</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56">
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" ht="64">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
         <v>900</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
         <v>31</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E61" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57">
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" ht="32">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
         <v>901</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>32</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E62" t="s">
         <v>481</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58">
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" ht="32">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
         <v>902</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
         <v>33</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E63" t="s">
         <v>482</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59">
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" ht="144">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
         <v>910</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
         <v>34</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E64" t="s">
         <v>483</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60">
+    <row r="65" spans="1:8" ht="48">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
         <v>911</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
         <v>35</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E65" t="s">
         <v>484</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61">
+    <row r="66" spans="1:8" ht="48">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>912</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>596</v>
+      </c>
+      <c r="E66" t="s">
+        <v>594</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="48">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>913</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>597</v>
+      </c>
+      <c r="E67" t="s">
+        <v>595</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="64">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
         <v>918</v>
       </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
         <v>36</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E68" t="s">
         <v>485</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62">
+    <row r="69" spans="1:8" ht="64">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
         <v>919</v>
       </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
         <v>37</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E69" t="s">
         <v>486</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63">
+    <row r="70" spans="1:8" ht="48">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
         <v>920</v>
       </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
         <v>38</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E70" t="s">
         <v>487</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="48">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
         <v>921</v>
       </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
         <v>39</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E71" t="s">
         <v>488</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="48">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
         <v>922</v>
       </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
         <v>40</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E72" t="s">
         <v>489</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
         <v>923</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
         <v>397</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E73" t="s">
         <v>490</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H73" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67">
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
         <v>924</v>
       </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
         <v>426</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E74" t="s">
         <v>491</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F74" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H74" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68">
+    <row r="75" spans="1:8" ht="16">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
         <v>926</v>
       </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
         <v>41</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E75" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69">
+    <row r="76" spans="1:8" ht="16">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
         <v>927</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
         <v>42</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E76" t="s">
         <v>42</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70">
+    <row r="77" spans="1:8" ht="16">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77">
         <v>928</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
         <v>43</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E77" t="s">
         <v>43</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="16">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
         <v>929</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
         <v>44</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E78" t="s">
         <v>44</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="48">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>930</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>599</v>
+      </c>
+      <c r="E79" t="s">
+        <v>598</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="64">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
         <v>931</v>
       </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
         <v>45</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E80" t="s">
         <v>492</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73">
+    <row r="81" spans="1:8" ht="80">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
         <v>932</v>
       </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
         <v>46</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E81" t="s">
         <v>493</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74">
+    <row r="82" spans="1:8" ht="48">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
         <v>933</v>
       </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
         <v>47</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E82" t="s">
         <v>494</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75">
+    <row r="83" spans="1:8" ht="80">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
         <v>934</v>
       </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
         <v>48</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E83" t="s">
         <v>495</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76">
+    <row r="84" spans="1:8" ht="80">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
         <v>935</v>
       </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
         <v>49</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E84" t="s">
         <v>496</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77">
+    <row r="85" spans="1:8" ht="48">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
         <v>936</v>
       </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
         <v>50</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E85" t="s">
         <v>497</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78">
+    <row r="86" spans="1:8" ht="48">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
         <v>937</v>
       </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
         <v>51</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E86" t="s">
         <v>498</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79">
+    <row r="87" spans="1:8" ht="48">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
         <v>938</v>
       </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
         <v>425</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E87" t="s">
         <v>499</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80">
+    <row r="88" spans="1:8" ht="48">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
         <v>939</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
         <v>52</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E88" t="s">
         <v>500</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81">
+    <row r="89" spans="1:8" ht="80">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
         <v>940</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
         <v>53</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E89" t="s">
         <v>501</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82">
+    <row r="90" spans="1:8" ht="80">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
         <v>941</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
         <v>54</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E90" t="s">
         <v>502</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F90" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83">
+    <row r="91" spans="1:8" ht="80">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
         <v>942</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
         <v>55</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E91" t="s">
         <v>503</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G91" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84">
+    <row r="92" spans="1:8" ht="80">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92">
         <v>943</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
         <v>56</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E92" t="s">
         <v>504</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F92" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G92" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85">
+    <row r="93" spans="1:8" ht="80">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
         <v>944</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
         <v>57</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E93" t="s">
         <v>505</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G93" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86">
+    <row r="94" spans="1:8" ht="80">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
         <v>945</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
         <v>58</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E94" t="s">
         <v>506</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G94" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87">
+    <row r="95" spans="1:8" ht="48">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95">
         <v>950</v>
       </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
         <v>59</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E95" t="s">
         <v>507</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F95" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G95" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H95" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88">
+    <row r="96" spans="1:8" ht="48">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
         <v>951</v>
       </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
         <v>60</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E96" t="s">
         <v>508</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G96" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89">
+    <row r="97" spans="1:8" ht="48">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
         <v>952</v>
       </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
         <v>61</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E97" t="s">
         <v>509</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F97" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H97" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="99" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90">
+    <row r="98" spans="1:8" ht="96">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98">
         <v>953</v>
       </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
         <v>62</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E98" t="s">
         <v>510</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F98" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="99" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91">
+    <row r="99" spans="1:8" ht="96">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99">
         <v>954</v>
       </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
         <v>63</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E99" t="s">
         <v>511</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F99" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G99" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H99" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92">
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
         <v>955</v>
       </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
         <v>398</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E100" t="s">
         <v>512</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F100" t="s">
         <v>369</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G100" t="s">
         <v>370</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H100" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93">
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101">
         <v>956</v>
       </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
         <v>399</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E101" t="s">
         <v>513</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F101" t="s">
         <v>372</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G101" t="s">
         <v>370</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H101" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94">
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102">
         <v>957</v>
       </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
         <v>400</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E102" t="s">
         <v>514</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F102" t="s">
         <v>373</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G102" t="s">
         <v>374</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H102" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95">
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103">
         <v>958</v>
       </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
         <v>401</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E103" t="s">
         <v>515</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F103" t="s">
         <v>376</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G103" t="s">
         <v>374</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H103" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96">
+    <row r="104" spans="1:8" ht="80">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
         <v>960</v>
       </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
         <v>64</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E104" t="s">
         <v>516</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F104" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G104" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97">
+    <row r="105" spans="1:8" ht="80">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105">
         <v>961</v>
       </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
         <v>65</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E105" t="s">
         <v>517</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="G105" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98">
+    <row r="106" spans="1:8" ht="80">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106">
         <v>962</v>
       </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
         <v>66</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E106" t="s">
         <v>518</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G106" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H106" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99">
+    <row r="107" spans="1:8" ht="80">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
         <v>963</v>
       </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
         <v>67</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E107" t="s">
         <v>519</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F107" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="G107" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H107" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100">
+    <row r="108" spans="1:8" ht="80">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
         <v>964</v>
       </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
         <v>68</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E108" t="s">
         <v>520</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F108" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G108" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H108" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101">
+    <row r="109" spans="1:8" ht="80">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109">
         <v>965</v>
       </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
         <v>69</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E109" t="s">
         <v>521</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F109" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G109" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102">
+    <row r="110" spans="1:8" ht="80">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110">
         <v>966</v>
       </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
         <v>70</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E110" t="s">
         <v>522</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F110" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G110" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103">
+    <row r="111" spans="1:8" ht="80">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111">
         <v>967</v>
       </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
         <v>71</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E111" t="s">
         <v>523</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F111" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="G111" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H111" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104">
+    <row r="112" spans="1:8" ht="112">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112">
         <v>968</v>
       </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
         <v>72</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E112" t="s">
         <v>524</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F112" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G112" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H112" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105">
+    <row r="113" spans="1:8" ht="112">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113">
         <v>969</v>
       </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
         <v>73</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E113" t="s">
         <v>525</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F113" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="G113" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H113" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106">
+    <row r="114" spans="1:8" ht="80">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114">
         <v>971</v>
       </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
         <v>74</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E114" t="s">
         <v>526</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F114" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="G114" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H114" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107">
+    <row r="115" spans="1:8" ht="144">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115">
         <v>972</v>
       </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
         <v>75</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E115" t="s">
         <v>527</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F115" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="G107" s="6" t="s">
+      <c r="G115" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H115" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108">
+    <row r="116" spans="1:8" ht="112">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116">
         <v>973</v>
       </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
         <v>76</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E116" t="s">
         <v>528</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F116" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G116" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H116" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109">
+    <row r="117" spans="1:8" ht="112">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
         <v>974</v>
       </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
         <v>77</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E117" t="s">
         <v>529</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F117" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="G109" s="6" t="s">
+      <c r="G117" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110">
+    <row r="118" spans="1:8" ht="64">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
         <v>976</v>
       </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
         <v>78</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E118" t="s">
         <v>530</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F118" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G110" s="6" t="s">
+      <c r="G118" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H110" s="8" t="s">
+      <c r="H118" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111">
+    <row r="119" spans="1:8" ht="64">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
         <v>977</v>
       </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
         <v>79</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E119" t="s">
         <v>531</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F119" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G119" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H111" s="8" t="s">
+      <c r="H119" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112">
+    <row r="120" spans="1:8" ht="80">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
         <v>978</v>
       </c>
-      <c r="C112">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
         <v>80</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E120" t="s">
         <v>532</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F120" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="G120" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H120" s="7" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="99" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113">
+    <row r="121" spans="1:8" ht="96">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
         <v>979</v>
       </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
         <v>81</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E121" t="s">
         <v>533</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="F121" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G113" s="6" t="s">
+      <c r="G121" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114">
+    <row r="122" spans="1:8" ht="80">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
         <v>980</v>
       </c>
-      <c r="C114">
-        <v>2</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
         <v>82</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E122" t="s">
         <v>534</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F122" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G114" s="6" t="s">
+      <c r="G122" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H122" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115">
+    <row r="123" spans="1:8" ht="48">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123">
         <v>981</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
         <v>83</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E123" t="s">
         <v>535</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F123" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G115" s="6" t="s">
+      <c r="G123" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="H115" s="7" t="s">
+      <c r="H123" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116">
+    <row r="124" spans="1:8" ht="48">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
         <v>982</v>
       </c>
-      <c r="C116">
-        <v>2</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
         <v>84</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E124" t="s">
         <v>536</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F124" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G116" s="6" t="s">
+      <c r="G124" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H124" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117">
+    <row r="125" spans="1:8" ht="32">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>983</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>583</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="1:8" ht="16">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126">
         <v>985</v>
       </c>
-      <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
         <v>85</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E126" t="s">
         <v>537</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G117" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="H117" s="8"/>
-    </row>
-    <row r="118" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118">
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8" ht="32">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127">
         <v>987</v>
       </c>
-      <c r="C118">
-        <v>2</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
         <v>86</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E127" t="s">
         <v>538</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F127" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G118" s="6" t="s">
+      <c r="G127" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H118" s="8"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119">
+      <c r="H127" s="8"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128">
         <v>998</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
         <v>424</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E128" t="s">
         <v>539</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F128" t="s">
         <v>413</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G128" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120">
+    <row r="129" spans="1:8" ht="48">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129">
         <v>999</v>
       </c>
-      <c r="C120">
-        <v>2</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
         <v>87</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E129" t="s">
         <v>540</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F129" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="G129" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H129" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
         <v>265</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
         <v>268</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E130" t="s">
         <v>541</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F130" t="s">
         <v>295</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G130" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
         <v>265</v>
       </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
         <v>269</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E131" t="s">
         <v>542</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F131" t="s">
         <v>297</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G131" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>266</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>270</v>
-      </c>
-      <c r="E123" t="s">
-        <v>543</v>
-      </c>
-      <c r="F123" t="s">
-        <v>298</v>
-      </c>
-      <c r="G123" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>266</v>
-      </c>
-      <c r="B124">
-        <v>2</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
-        <v>271</v>
-      </c>
-      <c r="E124" t="s">
-        <v>544</v>
-      </c>
-      <c r="F124" t="s">
-        <v>300</v>
-      </c>
-      <c r="G124" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>266</v>
-      </c>
-      <c r="B125">
-        <v>3</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125" t="s">
-        <v>272</v>
-      </c>
-      <c r="E125" t="s">
-        <v>545</v>
-      </c>
-      <c r="F125" t="s">
-        <v>302</v>
-      </c>
-      <c r="G125" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>266</v>
-      </c>
-      <c r="B126">
-        <v>4</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>273</v>
-      </c>
-      <c r="E126" t="s">
-        <v>546</v>
-      </c>
-      <c r="F126" t="s">
-        <v>304</v>
-      </c>
-      <c r="G126" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>266</v>
-      </c>
-      <c r="B127">
-        <v>5</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>274</v>
-      </c>
-      <c r="E127" t="s">
-        <v>547</v>
-      </c>
-      <c r="F127" t="s">
-        <v>306</v>
-      </c>
-      <c r="G127" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>266</v>
-      </c>
-      <c r="B128">
-        <v>6</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>275</v>
-      </c>
-      <c r="E128" t="s">
-        <v>548</v>
-      </c>
-      <c r="F128" t="s">
-        <v>308</v>
-      </c>
-      <c r="G128" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>266</v>
-      </c>
-      <c r="B129">
-        <v>7</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129" t="s">
-        <v>276</v>
-      </c>
-      <c r="E129" t="s">
-        <v>549</v>
-      </c>
-      <c r="F129" t="s">
-        <v>310</v>
-      </c>
-      <c r="G129" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>266</v>
-      </c>
-      <c r="B130">
-        <v>8</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
-        <v>272</v>
-      </c>
-      <c r="E130" t="s">
-        <v>550</v>
-      </c>
-      <c r="F130" t="s">
-        <v>311</v>
-      </c>
-      <c r="G130" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>266</v>
-      </c>
-      <c r="B131">
-        <v>9</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131" t="s">
-        <v>277</v>
-      </c>
-      <c r="E131" t="s">
-        <v>551</v>
-      </c>
-      <c r="F131" t="s">
-        <v>312</v>
-      </c>
-      <c r="G131" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>266</v>
       </c>
       <c r="B132">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E132" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F132" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="G132" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>266</v>
       </c>
       <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>271</v>
+      </c>
+      <c r="E133" t="s">
+        <v>544</v>
+      </c>
+      <c r="F133" t="s">
+        <v>300</v>
+      </c>
+      <c r="G133" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>272</v>
+      </c>
+      <c r="E134" t="s">
+        <v>545</v>
+      </c>
+      <c r="F134" t="s">
+        <v>302</v>
+      </c>
+      <c r="G134" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>273</v>
+      </c>
+      <c r="E135" t="s">
+        <v>546</v>
+      </c>
+      <c r="F135" t="s">
+        <v>304</v>
+      </c>
+      <c r="G135" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>274</v>
+      </c>
+      <c r="E136" t="s">
+        <v>547</v>
+      </c>
+      <c r="F136" t="s">
+        <v>306</v>
+      </c>
+      <c r="G136" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>275</v>
+      </c>
+      <c r="E137" t="s">
+        <v>548</v>
+      </c>
+      <c r="F137" t="s">
+        <v>308</v>
+      </c>
+      <c r="G137" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>266</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>276</v>
+      </c>
+      <c r="E138" t="s">
+        <v>549</v>
+      </c>
+      <c r="F138" t="s">
+        <v>310</v>
+      </c>
+      <c r="G138" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>266</v>
+      </c>
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E139" t="s">
+        <v>550</v>
+      </c>
+      <c r="F139" t="s">
+        <v>311</v>
+      </c>
+      <c r="G139" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>266</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>277</v>
+      </c>
+      <c r="E140" t="s">
+        <v>551</v>
+      </c>
+      <c r="F140" t="s">
+        <v>312</v>
+      </c>
+      <c r="G140" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>266</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>274</v>
+      </c>
+      <c r="E141" t="s">
+        <v>552</v>
+      </c>
+      <c r="F141" t="s">
+        <v>313</v>
+      </c>
+      <c r="G141" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>266</v>
+      </c>
+      <c r="B142">
         <v>11</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
         <v>278</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E142" t="s">
         <v>553</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F142" t="s">
         <v>314</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G142" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>267</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134" t="s">
-        <v>278</v>
-      </c>
-      <c r="E134" t="s">
-        <v>553</v>
-      </c>
-      <c r="F134" t="s">
-        <v>314</v>
-      </c>
-      <c r="G134" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>267</v>
-      </c>
-      <c r="B135">
-        <v>2</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135" t="s">
-        <v>279</v>
-      </c>
-      <c r="E135" t="s">
-        <v>554</v>
-      </c>
-      <c r="F135" t="s">
-        <v>316</v>
-      </c>
-      <c r="G135" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>267</v>
-      </c>
-      <c r="B136">
-        <v>3</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136" t="s">
-        <v>280</v>
-      </c>
-      <c r="E136" t="s">
-        <v>555</v>
-      </c>
-      <c r="F136" t="s">
-        <v>318</v>
-      </c>
-      <c r="G136" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>267</v>
-      </c>
-      <c r="B137">
-        <v>4</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
-        <v>281</v>
-      </c>
-      <c r="E137" t="s">
-        <v>544</v>
-      </c>
-      <c r="F137" t="s">
-        <v>300</v>
-      </c>
-      <c r="G137" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>267</v>
-      </c>
-      <c r="B138">
-        <v>5</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>282</v>
-      </c>
-      <c r="E138" t="s">
-        <v>556</v>
-      </c>
-      <c r="F138" t="s">
-        <v>320</v>
-      </c>
-      <c r="G138" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>267</v>
-      </c>
-      <c r="B139">
-        <v>6</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139" t="s">
-        <v>283</v>
-      </c>
-      <c r="E139" t="s">
-        <v>557</v>
-      </c>
-      <c r="F139" t="s">
-        <v>322</v>
-      </c>
-      <c r="G139" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>267</v>
-      </c>
-      <c r="B140">
-        <v>7</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140" t="s">
-        <v>284</v>
-      </c>
-      <c r="E140" t="s">
-        <v>558</v>
-      </c>
-      <c r="F140" t="s">
-        <v>324</v>
-      </c>
-      <c r="G140" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>267</v>
-      </c>
-      <c r="B141">
-        <v>8</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141" t="s">
-        <v>285</v>
-      </c>
-      <c r="E141" t="s">
-        <v>559</v>
-      </c>
-      <c r="F141" t="s">
-        <v>326</v>
-      </c>
-      <c r="G141" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>267</v>
-      </c>
-      <c r="B142">
-        <v>9</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142" t="s">
-        <v>286</v>
-      </c>
-      <c r="E142" t="s">
-        <v>560</v>
-      </c>
-      <c r="F142" t="s">
-        <v>327</v>
-      </c>
-      <c r="G142" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>267</v>
       </c>
       <c r="B143">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E143" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F143" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="G143" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>267</v>
       </c>
       <c r="B144">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E144" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F144" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G144" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>267</v>
       </c>
       <c r="B145">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E145" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F145" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="G145" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>267</v>
       </c>
       <c r="B146">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E146" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="F146" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="G146" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>267</v>
       </c>
       <c r="B147">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E147" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F147" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="G147" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>267</v>
       </c>
       <c r="B148">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E148" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="F148" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G148" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>267</v>
       </c>
       <c r="B149">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E149" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="G149" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>267</v>
       </c>
       <c r="B150">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E150" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F150" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G150" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>267</v>
       </c>
       <c r="B151">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E151" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F151" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G151" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>267</v>
       </c>
       <c r="B152">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>287</v>
+      </c>
+      <c r="E152" t="s">
+        <v>561</v>
+      </c>
+      <c r="F152" t="s">
+        <v>329</v>
+      </c>
+      <c r="G152" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>267</v>
+      </c>
+      <c r="B153">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>286</v>
+      </c>
+      <c r="E153" t="s">
+        <v>562</v>
+      </c>
+      <c r="F153" t="s">
+        <v>330</v>
+      </c>
+      <c r="G153" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>267</v>
+      </c>
+      <c r="B154">
+        <v>12</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>287</v>
+      </c>
+      <c r="E154" t="s">
+        <v>563</v>
+      </c>
+      <c r="F154" t="s">
+        <v>332</v>
+      </c>
+      <c r="G154" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>267</v>
+      </c>
+      <c r="B155">
+        <v>17</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>288</v>
+      </c>
+      <c r="E155" t="s">
+        <v>564</v>
+      </c>
+      <c r="F155" t="s">
+        <v>333</v>
+      </c>
+      <c r="G155" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>267</v>
+      </c>
+      <c r="B156">
+        <v>18</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>289</v>
+      </c>
+      <c r="E156" t="s">
+        <v>565</v>
+      </c>
+      <c r="F156" t="s">
+        <v>335</v>
+      </c>
+      <c r="G156" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>267</v>
+      </c>
+      <c r="B157">
+        <v>19</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>290</v>
+      </c>
+      <c r="E157" t="s">
+        <v>566</v>
+      </c>
+      <c r="F157" t="s">
+        <v>336</v>
+      </c>
+      <c r="G157" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158">
+        <v>20</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>270</v>
+      </c>
+      <c r="E158" t="s">
+        <v>543</v>
+      </c>
+      <c r="F158" t="s">
+        <v>298</v>
+      </c>
+      <c r="G158" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>267</v>
+      </c>
+      <c r="B159">
+        <v>21</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>291</v>
+      </c>
+      <c r="E159" t="s">
+        <v>567</v>
+      </c>
+      <c r="F159" t="s">
+        <v>337</v>
+      </c>
+      <c r="G159" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>267</v>
+      </c>
+      <c r="B160">
+        <v>22</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>292</v>
+      </c>
+      <c r="E160" t="s">
+        <v>568</v>
+      </c>
+      <c r="F160" t="s">
+        <v>338</v>
+      </c>
+      <c r="G160" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>267</v>
+      </c>
+      <c r="B161">
         <v>23</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
         <v>293</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E161" t="s">
         <v>569</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F161" t="s">
         <v>340</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G161" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
         <v>261</v>
       </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>2</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
         <v>88</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E162" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
         <v>261</v>
       </c>
-      <c r="B154">
-        <v>2</v>
-      </c>
-      <c r="C154">
-        <v>2</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
         <v>89</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E163" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
         <v>262</v>
       </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>2</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
         <v>88</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E164" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
         <v>262</v>
       </c>
-      <c r="B156">
-        <v>2</v>
-      </c>
-      <c r="C156">
-        <v>2</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
         <v>89</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E165" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
         <v>263</v>
       </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>2</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
         <v>88</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E166" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
         <v>263</v>
       </c>
-      <c r="B158">
-        <v>2</v>
-      </c>
-      <c r="C158">
-        <v>2</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
         <v>89</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E167" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
         <v>264</v>
       </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>2</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
         <v>88</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E168" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
         <v>264</v>
       </c>
-      <c r="B160">
-        <v>2</v>
-      </c>
-      <c r="C160">
-        <v>2</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
         <v>89</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E169" t="s">
         <v>571</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H120">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H129">
     <sortCondition ref="B2"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -7173,16 +7543,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection sqref="A1:G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>265</v>
       </c>
@@ -7202,7 +7572,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -7222,7 +7592,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -7242,7 +7612,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -7262,7 +7632,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>266</v>
       </c>
@@ -7282,7 +7652,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -7302,7 +7672,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>266</v>
       </c>
@@ -7322,7 +7692,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>266</v>
       </c>
@@ -7342,7 +7712,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>266</v>
       </c>
@@ -7362,7 +7732,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -7382,7 +7752,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>266</v>
       </c>
@@ -7402,7 +7772,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>266</v>
       </c>
@@ -7422,7 +7792,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>266</v>
       </c>
@@ -7442,7 +7812,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -7462,7 +7832,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>267</v>
       </c>
@@ -7482,7 +7852,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>267</v>
       </c>
@@ -7502,7 +7872,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -7522,7 +7892,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -7542,7 +7912,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>267</v>
       </c>
@@ -7562,7 +7932,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>267</v>
       </c>
@@ -7582,7 +7952,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>267</v>
       </c>
@@ -7602,7 +7972,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>267</v>
       </c>
@@ -7622,7 +7992,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>267</v>
       </c>
@@ -7642,7 +8012,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>267</v>
       </c>
@@ -7662,7 +8032,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>267</v>
       </c>
@@ -7682,7 +8052,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>267</v>
       </c>
@@ -7702,7 +8072,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>267</v>
       </c>
@@ -7722,7 +8092,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>267</v>
       </c>
@@ -7742,7 +8112,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>267</v>
       </c>
@@ -7762,7 +8132,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>267</v>
       </c>
@@ -7782,7 +8152,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>267</v>
       </c>
@@ -7802,7 +8172,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>267</v>
       </c>
@@ -7822,7 +8192,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>261</v>
       </c>
@@ -7836,7 +8206,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>261</v>
       </c>
@@ -7850,7 +8220,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>262</v>
       </c>
@@ -7864,7 +8234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>262</v>
       </c>
@@ -7878,7 +8248,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>263</v>
       </c>
@@ -7892,7 +8262,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>263</v>
       </c>
@@ -7906,7 +8276,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>264</v>
       </c>
@@ -7920,7 +8290,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>264</v>
       </c>
